--- a/graduate_code_r/output/data/raw_data_analysis.xlsx
+++ b/graduate_code_r/output/data/raw_data_analysis.xlsx
@@ -416,28 +416,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>358.7</v>
+        <v>340.8809523809524</v>
       </c>
       <c r="C2">
-        <v>23.74922275349972</v>
+        <v>17.9894310176598</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>28.5</v>
       </c>
       <c r="E2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F2">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="G2">
-        <v>0.3507620125607933</v>
+        <v>-0.3117398961140151</v>
       </c>
       <c r="H2">
-        <v>-0.5883574271075301</v>
+        <v>-0.7058361367892069</v>
       </c>
       <c r="I2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>153.1063076923077</v>
+        <v>83.36190476190477</v>
       </c>
       <c r="C3">
-        <v>27.95740550722276</v>
+        <v>7.278734558369076</v>
       </c>
       <c r="D3">
-        <v>14.73250000000002</v>
+        <v>9.399999999999977</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>179.98</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G3">
-        <v>-4.03571526348587</v>
+        <v>-1.251691428920765</v>
       </c>
       <c r="H3">
-        <v>19.3901937633345</v>
+        <v>2.782033753731192</v>
       </c>
       <c r="I3">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7076923076923077</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C4">
-        <v>0.4565824147848418</v>
+        <v>0.4915074349923197</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -499,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>-0.9239843374143154</v>
+        <v>-0.5086393047216193</v>
       </c>
       <c r="H4">
-        <v>-1.164407593492675</v>
+        <v>-1.830898668639053</v>
       </c>
       <c r="I4">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>0</v>

--- a/graduate_code_r/output/data/raw_data_analysis.xlsx
+++ b/graduate_code_r/output/data/raw_data_analysis.xlsx
@@ -416,28 +416,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>340.8809523809524</v>
+        <v>347.0206677265501</v>
       </c>
       <c r="C2">
-        <v>17.9894310176598</v>
+        <v>30.99852912371305</v>
       </c>
       <c r="D2">
-        <v>28.5</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="G2">
-        <v>-0.3117398961140151</v>
+        <v>0.167512902160729</v>
       </c>
       <c r="H2">
-        <v>-0.7058361367892069</v>
+        <v>-0.6103076578772313</v>
       </c>
       <c r="I2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>83.36190476190477</v>
+        <v>267.770462633452</v>
       </c>
       <c r="C3">
-        <v>7.278734558369076</v>
+        <v>19.49968644017359</v>
       </c>
       <c r="D3">
-        <v>9.399999999999977</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F3">
-        <v>94.40000000000001</v>
+        <v>297</v>
       </c>
       <c r="G3">
-        <v>-1.251691428920765</v>
+        <v>-0.9003306876271662</v>
       </c>
       <c r="H3">
-        <v>2.782033753731192</v>
+        <v>0.8524283612107091</v>
       </c>
       <c r="I3">
-        <v>42</v>
+        <v>562</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6190476190476191</v>
+        <v>0.8934817170111288</v>
       </c>
       <c r="C4">
-        <v>0.4915074349923197</v>
+        <v>0.308745342262878</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -499,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>-0.5086393047216193</v>
+        <v>-2.557038361855957</v>
       </c>
       <c r="H4">
-        <v>-1.830898668639053</v>
+        <v>4.552911798059253</v>
       </c>
       <c r="I4">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="J4">
         <v>0</v>
